--- a/DashboarJira/PlantillasExcel/Plantilla MTE-MT-22 Assa.xlsx
+++ b/DashboarJira/PlantillasExcel/Plantilla MTE-MT-22 Assa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juana\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ing. Luis\Manual Equipos\TM_SIGMP\HojasdeVida_Formato\Plantillas\Assa Abloy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620782E6-E871-4EF6-95CA-A15AF725796A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056CBC4E-1B6C-4380-AD44-AAF2B1DBE12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -342,13 +342,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor rgb="FF00A5D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,119 +511,112 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -633,6 +626,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -642,14 +644,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,6 +659,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00A5D1"/>
+      <color rgb="FF00A2D3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -768,138 +776,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>94587</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>100854</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B034AE-2A26-49C5-AB8C-D376FDAB95C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9816353" y="4403913"/>
-          <a:ext cx="4565734" cy="3798794"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>123266</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>180315</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>184744</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E916233D-6A1A-493C-8288-63878517F167}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9838766" y="8282168"/>
-          <a:ext cx="3776381" cy="2335252"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>667261</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>150242</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>265154</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930BC684-C304-42C9-9559-319BC5E89C17}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10382761" y="10724029"/>
-          <a:ext cx="3292981" cy="2887331"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -925,7 +801,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -955,6 +831,138 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>122465</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>719873</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FAB7B24-11E9-7AB1-77CA-FE88A172185F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10599965" y="4435929"/>
+          <a:ext cx="2883408" cy="2925535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>394606</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>258536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>204108</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>145109</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC1BEA7-9D7E-E3F9-76AA-CA758700947B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10872106" y="7538357"/>
+          <a:ext cx="2857502" cy="2580788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>286663</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>176340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE48E9B-1783-E17A-1F81-8375CCE11ADE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10776857" y="10260699"/>
+          <a:ext cx="2925536" cy="3481962"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1227,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AO54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:J32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,20 +1270,20 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
       <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
@@ -1317,35 +1325,35 @@
     <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="15"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="58"/>
     </row>
     <row r="7" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="50" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="18" t="s">
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="12" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="53"/>
@@ -1357,17 +1365,17 @@
       <c r="Q7" s="55"/>
     </row>
     <row r="8" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="18" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="12" t="s">
         <v>5</v>
       </c>
       <c r="K8" s="53"/>
@@ -1379,19 +1387,19 @@
       <c r="Q8" s="55"/>
     </row>
     <row r="9" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="50" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="18" t="s">
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="K9" s="53"/>
@@ -1403,17 +1411,17 @@
       <c r="Q9" s="55"/>
     </row>
     <row r="10" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="19" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="K10" s="53"/>
@@ -1425,937 +1433,936 @@
       <c r="Q10" s="55"/>
     </row>
     <row r="11" spans="2:17" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="22"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="33"/>
     </row>
     <row r="12" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="36"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="28"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="39"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="28"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="39"/>
     </row>
     <row r="15" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="28"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="39"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="28"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="39"/>
     </row>
     <row r="17" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="28"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="39"/>
     </row>
     <row r="18" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="28"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="39"/>
     </row>
     <row r="19" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="28"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="39"/>
     </row>
     <row r="20" spans="2:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="28"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="39"/>
     </row>
     <row r="21" spans="2:17" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="31"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="42"/>
     </row>
     <row r="22" spans="2:17" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="22"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="32" t="s">
+      <c r="C23" s="24"/>
+      <c r="D23" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="37"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="16"/>
     </row>
     <row r="24" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="38" t="s">
+      <c r="C24" s="24"/>
+      <c r="D24" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="43"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="19"/>
     </row>
     <row r="25" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="44" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="43"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="19"/>
     </row>
     <row r="26" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="38" t="s">
+      <c r="C26" s="24"/>
+      <c r="D26" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="43"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="19"/>
     </row>
     <row r="27" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="38" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="43"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="19"/>
     </row>
     <row r="28" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="38" t="s">
+      <c r="C28" s="24"/>
+      <c r="D28" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="43"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="19"/>
     </row>
     <row r="29" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="38" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="43"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="19"/>
     </row>
     <row r="30" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="38" t="s">
+      <c r="C30" s="24"/>
+      <c r="D30" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="43"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="19"/>
     </row>
     <row r="31" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="38" t="s">
+      <c r="C31" s="24"/>
+      <c r="D31" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="43"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="19"/>
     </row>
     <row r="32" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="38" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="43"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="19"/>
     </row>
     <row r="33" spans="2:41" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="38" t="s">
+      <c r="C33" s="24"/>
+      <c r="D33" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="43"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="19"/>
     </row>
     <row r="34" spans="2:41" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="38" t="s">
+      <c r="C34" s="24"/>
+      <c r="D34" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="43"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="19"/>
     </row>
     <row r="35" spans="2:41" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="38" t="s">
+      <c r="C35" s="24"/>
+      <c r="D35" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="43"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="19"/>
     </row>
     <row r="36" spans="2:41" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="38" t="s">
+      <c r="C36" s="24"/>
+      <c r="D36" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="43"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="19"/>
     </row>
     <row r="37" spans="2:41" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="38" t="s">
+      <c r="C37" s="24"/>
+      <c r="D37" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="43"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="19"/>
     </row>
     <row r="38" spans="2:41" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="38" t="s">
+      <c r="C38" s="24"/>
+      <c r="D38" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="43"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="19"/>
     </row>
     <row r="39" spans="2:41" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="38" t="s">
+      <c r="C39" s="24"/>
+      <c r="D39" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="43"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="19"/>
     </row>
     <row r="40" spans="2:41" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="44" t="s">
+      <c r="C40" s="24"/>
+      <c r="D40" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="43"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="19"/>
     </row>
     <row r="41" spans="2:41" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="38" t="s">
+      <c r="C41" s="24"/>
+      <c r="D41" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="43"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="19"/>
     </row>
     <row r="42" spans="2:41" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="38" t="s">
+      <c r="C42" s="24"/>
+      <c r="D42" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="43"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="19"/>
     </row>
     <row r="43" spans="2:41" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="44" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="43"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="19"/>
     </row>
     <row r="44" spans="2:41" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="38" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="42"/>
-      <c r="Q44" s="43"/>
-      <c r="AO44" s="12"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="19"/>
+      <c r="AO44" s="11"/>
     </row>
     <row r="45" spans="2:41" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="38" t="s">
+      <c r="C45" s="24"/>
+      <c r="D45" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="42"/>
-      <c r="P45" s="42"/>
-      <c r="Q45" s="43"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="19"/>
     </row>
     <row r="46" spans="2:41" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="38" t="s">
+      <c r="C46" s="24"/>
+      <c r="D46" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="43"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="19"/>
     </row>
     <row r="47" spans="2:41" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="38" t="s">
+      <c r="C47" s="24"/>
+      <c r="D47" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="42"/>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="43"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="19"/>
     </row>
     <row r="48" spans="2:41" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="38" t="s">
+      <c r="C48" s="24"/>
+      <c r="D48" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="42"/>
-      <c r="P48" s="42"/>
-      <c r="Q48" s="43"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="19"/>
     </row>
     <row r="49" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="38" t="s">
+      <c r="C49" s="24"/>
+      <c r="D49" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="42"/>
-      <c r="O49" s="42"/>
-      <c r="P49" s="42"/>
-      <c r="Q49" s="43"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="19"/>
     </row>
     <row r="50" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="38" t="s">
+      <c r="C50" s="24"/>
+      <c r="D50" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="42"/>
-      <c r="P50" s="42"/>
-      <c r="Q50" s="43"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="19"/>
     </row>
     <row r="51" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="38" t="s">
+      <c r="C51" s="24"/>
+      <c r="D51" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="42"/>
-      <c r="P51" s="42"/>
-      <c r="Q51" s="43"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="19"/>
     </row>
     <row r="52" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="38" t="s">
+      <c r="C52" s="24"/>
+      <c r="D52" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="43"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="19"/>
     </row>
     <row r="53" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="38" t="s">
+      <c r="C53" s="24"/>
+      <c r="D53" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="42"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="42"/>
-      <c r="P53" s="42"/>
-      <c r="Q53" s="43"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="19"/>
     </row>
     <row r="54" spans="2:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="38" t="s">
+      <c r="C54" s="24"/>
+      <c r="D54" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="48"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="48"/>
-      <c r="Q54" s="49"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="81">
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="E3:P3"/>
-    <mergeCell ref="E6:Q6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
@@ -2367,6 +2374,7 @@
     <mergeCell ref="K8:Q8"/>
     <mergeCell ref="K9:Q9"/>
     <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="D6:Q6"/>
     <mergeCell ref="B11:Q11"/>
     <mergeCell ref="B12:Q21"/>
     <mergeCell ref="B22:Q22"/>
